--- a/Code/Results/Cases/Case_2_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.204378389460572</v>
+        <v>0.8026254900991603</v>
       </c>
       <c r="C2">
-        <v>0.07455793529693722</v>
+        <v>0.06972833565704661</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09279015840910887</v>
+        <v>0.1749855810264549</v>
       </c>
       <c r="F2">
-        <v>1.312423573871556</v>
+        <v>2.299579057228655</v>
       </c>
       <c r="G2">
-        <v>0.6799807273098395</v>
+        <v>1.202446591375022</v>
       </c>
       <c r="H2">
-        <v>0.513737936252511</v>
+        <v>1.173121123765128</v>
       </c>
       <c r="I2">
-        <v>0.551675213365769</v>
+        <v>1.179346095783742</v>
       </c>
       <c r="J2">
-        <v>0.054028239242637</v>
+        <v>0.07156967794969304</v>
       </c>
       <c r="K2">
-        <v>1.008371730515137</v>
+        <v>0.4774595367006782</v>
       </c>
       <c r="L2">
-        <v>0.3782669724026988</v>
+        <v>0.4501545214245368</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.011036392365938</v>
+        <v>2.116977087754879</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051101095997751</v>
+        <v>0.7629333717115117</v>
       </c>
       <c r="C3">
-        <v>0.06820902988809507</v>
+        <v>0.06753713348266643</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08586987650313205</v>
+        <v>0.1739920969943221</v>
       </c>
       <c r="F3">
-        <v>1.243956074644089</v>
+        <v>2.29615214440652</v>
       </c>
       <c r="G3">
-        <v>0.6609994074359378</v>
+        <v>1.205796194450144</v>
       </c>
       <c r="H3">
-        <v>0.5121074121233278</v>
+        <v>1.179304178624633</v>
       </c>
       <c r="I3">
-        <v>0.5493834778346312</v>
+        <v>1.185879927176849</v>
       </c>
       <c r="J3">
-        <v>0.05312229185445005</v>
+        <v>0.0711796722019109</v>
       </c>
       <c r="K3">
-        <v>0.8754181834584358</v>
+        <v>0.4410672433099592</v>
       </c>
       <c r="L3">
-        <v>0.3379219626012144</v>
+        <v>0.4415976814238007</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.060061260974472</v>
+        <v>2.137620415348501</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9576029982216028</v>
+        <v>0.7388949428227249</v>
       </c>
       <c r="C4">
-        <v>0.06431678985638456</v>
+        <v>0.06616989730799361</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08169672635047931</v>
+        <v>0.1734417361573009</v>
       </c>
       <c r="F4">
-        <v>1.203879591420517</v>
+        <v>2.295131348574216</v>
       </c>
       <c r="G4">
-        <v>0.6506963015945502</v>
+        <v>1.208498619429449</v>
       </c>
       <c r="H4">
-        <v>0.511903714864701</v>
+        <v>1.183559340922798</v>
       </c>
       <c r="I4">
-        <v>0.5489239176632381</v>
+        <v>1.190403626308306</v>
       </c>
       <c r="J4">
-        <v>0.05256850192689733</v>
+        <v>0.07094042061022066</v>
       </c>
       <c r="K4">
-        <v>0.7942330648910172</v>
+        <v>0.4188926129581034</v>
       </c>
       <c r="L4">
-        <v>0.3134442151833952</v>
+        <v>0.4365346361910838</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.091436405867816</v>
+        <v>2.150940131486735</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9196377194000434</v>
+        <v>0.7291833438817719</v>
       </c>
       <c r="C5">
-        <v>0.06273094122453671</v>
+        <v>0.06560722890045412</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08001429328678</v>
+        <v>0.1732325115777051</v>
       </c>
       <c r="F5">
-        <v>1.188016752854622</v>
+        <v>2.294988044170225</v>
       </c>
       <c r="G5">
-        <v>0.6468206590864867</v>
+        <v>1.209762212418525</v>
       </c>
       <c r="H5">
-        <v>0.5120136849004524</v>
+        <v>1.18540878885527</v>
       </c>
       <c r="I5">
-        <v>0.5489654620846558</v>
+        <v>1.192375835219174</v>
       </c>
       <c r="J5">
-        <v>0.05234346904647325</v>
+        <v>0.07084298698290858</v>
       </c>
       <c r="K5">
-        <v>0.7612452901201721</v>
+        <v>0.4098995030083472</v>
       </c>
       <c r="L5">
-        <v>0.3035376737728797</v>
+        <v>0.4345195896189153</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.104534858493741</v>
+        <v>2.156530116192238</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9133412998533856</v>
+        <v>0.7275758467594358</v>
       </c>
       <c r="C6">
-        <v>0.06246759380253764</v>
+        <v>0.06551346496945598</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07973599692363464</v>
+        <v>0.1731986806948171</v>
       </c>
       <c r="F6">
-        <v>1.185410341276736</v>
+        <v>2.294980725439714</v>
       </c>
       <c r="G6">
-        <v>0.6461961400177501</v>
+        <v>1.209981834214602</v>
       </c>
       <c r="H6">
-        <v>0.5120433875233061</v>
+        <v>1.185722862633185</v>
       </c>
       <c r="I6">
-        <v>0.5489859131674031</v>
+        <v>1.192711097375231</v>
       </c>
       <c r="J6">
-        <v>0.05230614181429694</v>
+        <v>0.07082681231178078</v>
       </c>
       <c r="K6">
-        <v>0.7557730019701125</v>
+        <v>0.4084088264898185</v>
       </c>
       <c r="L6">
-        <v>0.3018966679323398</v>
+        <v>0.4341879083973197</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.106728530071939</v>
+        <v>2.15746811876436</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9570904586061886</v>
+        <v>0.7387636268600488</v>
       </c>
       <c r="C7">
-        <v>0.06429540303533798</v>
+        <v>0.0661623312937536</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08167396414331307</v>
+        <v>0.1734388534643649</v>
       </c>
       <c r="F7">
-        <v>1.203663794090374</v>
+        <v>2.295128311510013</v>
       </c>
       <c r="G7">
-        <v>0.6506427473709238</v>
+        <v>1.208515003471177</v>
       </c>
       <c r="H7">
-        <v>0.5119044262827828</v>
+        <v>1.183583815728596</v>
       </c>
       <c r="I7">
-        <v>0.5489235636128313</v>
+        <v>1.190429702787718</v>
       </c>
       <c r="J7">
-        <v>0.0525654644325293</v>
+        <v>0.07093910631740918</v>
       </c>
       <c r="K7">
-        <v>0.793787814110317</v>
+        <v>0.4187711531736511</v>
       </c>
       <c r="L7">
-        <v>0.3133103426575445</v>
+        <v>0.4365072652205697</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.091611799110897</v>
+        <v>2.151014863678771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.151389199635531</v>
+        <v>0.7888709419624718</v>
       </c>
       <c r="C8">
-        <v>0.07236681132034306</v>
+        <v>0.06897732758496034</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09038770709157262</v>
+        <v>0.1746306809380833</v>
       </c>
       <c r="F8">
-        <v>1.288393182086139</v>
+        <v>2.29817276081917</v>
       </c>
       <c r="G8">
-        <v>0.6731450193932886</v>
+        <v>1.203467476992017</v>
       </c>
       <c r="H8">
-        <v>0.5130055525840049</v>
+        <v>1.175157876681894</v>
       </c>
       <c r="I8">
-        <v>0.5506825097180936</v>
+        <v>1.181492740990905</v>
       </c>
       <c r="J8">
-        <v>0.05371536972018021</v>
+        <v>0.07143516532537575</v>
       </c>
       <c r="K8">
-        <v>0.962425576409089</v>
+        <v>0.4648763308144055</v>
       </c>
       <c r="L8">
-        <v>0.364291436226722</v>
+        <v>0.4471646112379233</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.027671218519574</v>
+        <v>2.123961113075465</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.538197528785815</v>
+        <v>0.889750369075216</v>
       </c>
       <c r="C9">
-        <v>0.08830328302838097</v>
+        <v>0.07432540325916648</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1081231527724533</v>
+        <v>0.1774389544640798</v>
       </c>
       <c r="F9">
-        <v>1.471318494431486</v>
+        <v>2.312730247377189</v>
       </c>
       <c r="G9">
-        <v>0.7288048757740597</v>
+        <v>1.198696385671639</v>
       </c>
       <c r="H9">
-        <v>0.5218538963698052</v>
+        <v>1.1622713970239</v>
       </c>
       <c r="I9">
-        <v>0.5621025306465981</v>
+        <v>1.168027658917715</v>
       </c>
       <c r="J9">
-        <v>0.05598898545870057</v>
+        <v>0.07240925107964458</v>
       </c>
       <c r="K9">
-        <v>1.297519160104457</v>
+        <v>0.5566282253591055</v>
       </c>
       <c r="L9">
-        <v>0.4668745757707171</v>
+        <v>0.4695716142282436</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9127420620887019</v>
+        <v>2.076023046130285</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.827290487782079</v>
+        <v>0.9654437686828885</v>
       </c>
       <c r="C10">
-        <v>0.1001700497006084</v>
+        <v>0.07815149388008535</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1216162676957815</v>
+        <v>0.1797869028766961</v>
       </c>
       <c r="F10">
-        <v>1.617716918731517</v>
+        <v>2.328653774860499</v>
       </c>
       <c r="G10">
-        <v>0.7779301185856866</v>
+        <v>1.198322961489652</v>
       </c>
       <c r="H10">
-        <v>0.532969195369887</v>
+        <v>1.155017110328785</v>
       </c>
       <c r="I10">
-        <v>0.5760214055659318</v>
+        <v>1.160608907477453</v>
       </c>
       <c r="J10">
-        <v>0.05766955964307741</v>
+        <v>0.07312527160646809</v>
       </c>
       <c r="K10">
-        <v>1.547650889563926</v>
+        <v>0.6248459731415323</v>
       </c>
       <c r="L10">
-        <v>0.5442452594668197</v>
+        <v>0.486946606634902</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8351948361502615</v>
+        <v>2.043918741923797</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.960201989150193</v>
+        <v>1.00021754822356</v>
       </c>
       <c r="C11">
-        <v>0.1056254334542004</v>
+        <v>0.07987008628116143</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1278713037019799</v>
+        <v>0.1809163642912743</v>
       </c>
       <c r="F11">
-        <v>1.68734839963858</v>
+        <v>2.337031887592573</v>
       </c>
       <c r="G11">
-        <v>0.8023535635069123</v>
+        <v>1.1988346242034</v>
       </c>
       <c r="H11">
-        <v>0.539156446240213</v>
+        <v>1.152196858942446</v>
       </c>
       <c r="I11">
-        <v>0.5837139704773762</v>
+        <v>1.157770959278025</v>
       </c>
       <c r="J11">
-        <v>0.05843599201371319</v>
+        <v>0.07345099567083579</v>
       </c>
       <c r="K11">
-        <v>1.662600597728158</v>
+        <v>0.6560538663777891</v>
       </c>
       <c r="L11">
-        <v>0.5799765343698624</v>
+        <v>0.4950478017074289</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8015364945433276</v>
+        <v>2.029989810120096</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.010762902481531</v>
+        <v>1.013433944724909</v>
       </c>
       <c r="C12">
-        <v>0.1077015076762322</v>
+        <v>0.08051774617423035</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1302581552626592</v>
+        <v>0.1813528369099195</v>
       </c>
       <c r="F12">
-        <v>1.714190260810753</v>
+        <v>2.340367406906978</v>
       </c>
       <c r="G12">
-        <v>0.8119265314093695</v>
+        <v>1.199126475248718</v>
       </c>
       <c r="H12">
-        <v>0.5416736242600706</v>
+        <v>1.151197830646353</v>
       </c>
       <c r="I12">
-        <v>0.586837042778015</v>
+        <v>1.156773484456025</v>
       </c>
       <c r="J12">
-        <v>0.0587264635458169</v>
+        <v>0.07357433013837777</v>
       </c>
       <c r="K12">
-        <v>1.706323272868332</v>
+        <v>0.667896400453543</v>
       </c>
       <c r="L12">
-        <v>0.5935926463292986</v>
+        <v>0.4981437177685564</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7890350204872441</v>
+        <v>2.024812434320465</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.999862986505377</v>
+        <v>1.010585418346352</v>
       </c>
       <c r="C13">
-        <v>0.1072538984019431</v>
+        <v>0.08037840012141118</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1297432712634539</v>
+        <v>0.1812584455377753</v>
       </c>
       <c r="F13">
-        <v>1.708387678719689</v>
+        <v>2.339641801160411</v>
       </c>
       <c r="G13">
-        <v>0.8098499646679898</v>
+        <v>1.199059255619829</v>
       </c>
       <c r="H13">
-        <v>0.541123563335475</v>
+        <v>1.151409923926778</v>
       </c>
       <c r="I13">
-        <v>0.5861548500277038</v>
+        <v>1.156984875376303</v>
       </c>
       <c r="J13">
-        <v>0.05866389525869309</v>
+        <v>0.07354776847455113</v>
       </c>
       <c r="K13">
-        <v>1.696897754320077</v>
+        <v>0.6653448034277005</v>
       </c>
       <c r="L13">
-        <v>0.5906562299746128</v>
+        <v>0.4974757070611133</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7917163828828606</v>
+        <v>2.025923150226305</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.964356880144635</v>
+        <v>1.001303904352312</v>
       </c>
       <c r="C14">
-        <v>0.1057960158912223</v>
+        <v>0.07992343235389399</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1280672982655808</v>
+        <v>0.1809520977027752</v>
       </c>
       <c r="F14">
-        <v>1.689546972042791</v>
+        <v>2.337303039068971</v>
       </c>
       <c r="G14">
-        <v>0.8031344823624949</v>
+        <v>1.198856668459726</v>
       </c>
       <c r="H14">
-        <v>0.5393599752327987</v>
+        <v>1.152113286907976</v>
       </c>
       <c r="I14">
-        <v>0.5839666112825554</v>
+        <v>1.157687349373319</v>
       </c>
       <c r="J14">
-        <v>0.05845988469560481</v>
+        <v>0.07346114273621751</v>
       </c>
       <c r="K14">
-        <v>1.666193647573948</v>
+        <v>0.6570276645479112</v>
       </c>
       <c r="L14">
-        <v>0.5810949764189388</v>
+        <v>0.4953019411259305</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.800503027454468</v>
+        <v>2.029561915652076</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.94263923311172</v>
+        <v>0.9956249828904333</v>
       </c>
       <c r="C15">
-        <v>0.1049044172947902</v>
+        <v>0.07964434387722008</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1270431300878059</v>
+        <v>0.1807655913155948</v>
       </c>
       <c r="F15">
-        <v>1.678069378802562</v>
+        <v>2.335891688947299</v>
       </c>
       <c r="G15">
-        <v>0.7990640929976536</v>
+        <v>1.198745355623728</v>
       </c>
       <c r="H15">
-        <v>0.5383027715798079</v>
+        <v>1.152553093581574</v>
       </c>
       <c r="I15">
-        <v>0.5826540537051059</v>
+        <v>1.158127687766267</v>
       </c>
       <c r="J15">
-        <v>0.05833495244197806</v>
+        <v>0.07340808033242041</v>
       </c>
       <c r="K15">
-        <v>1.64741254188985</v>
+        <v>0.6519363915811311</v>
       </c>
       <c r="L15">
-        <v>0.5752498247769608</v>
+        <v>0.4939741095218295</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8059172603860958</v>
+        <v>2.031803426240876</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.81863501381477</v>
+        <v>0.9631780169828801</v>
       </c>
       <c r="C16">
-        <v>0.09981484607019553</v>
+        <v>0.0780387403416114</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1212099562049396</v>
+        <v>0.1797143201330833</v>
       </c>
       <c r="F16">
-        <v>1.613230546438899</v>
+        <v>2.328129054255768</v>
       </c>
       <c r="G16">
-        <v>0.7763779271801212</v>
+        <v>1.198303245177371</v>
       </c>
       <c r="H16">
-        <v>0.5325885700671051</v>
+        <v>1.155211070159325</v>
       </c>
       <c r="I16">
-        <v>0.5755472666134622</v>
+        <v>1.160805176747211</v>
       </c>
       <c r="J16">
-        <v>0.05761950722761355</v>
+        <v>0.07310398392553097</v>
       </c>
       <c r="K16">
-        <v>1.540164279442706</v>
+        <v>0.6228099549981607</v>
       </c>
       <c r="L16">
-        <v>0.5419216163635383</v>
+        <v>0.4864211267868797</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8374280157562168</v>
+        <v>2.044842629088571</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.742941153368577</v>
+        <v>0.943359602967746</v>
       </c>
       <c r="C17">
-        <v>0.09670857572790936</v>
+        <v>0.07704815408649779</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1176624046506554</v>
+        <v>0.1790850782861462</v>
       </c>
       <c r="F17">
-        <v>1.574257055231982</v>
+        <v>2.323657326144613</v>
       </c>
       <c r="G17">
-        <v>0.7630101977110826</v>
+        <v>1.198206647300481</v>
       </c>
       <c r="H17">
-        <v>0.5293807011650813</v>
+        <v>1.156964495438572</v>
       </c>
       <c r="I17">
-        <v>0.5715459206525466</v>
+        <v>1.162585231219239</v>
       </c>
       <c r="J17">
-        <v>0.05718107386765325</v>
+        <v>0.07291742382214395</v>
       </c>
       <c r="K17">
-        <v>1.4746871007751</v>
+        <v>0.6049864248234087</v>
       </c>
       <c r="L17">
-        <v>0.5216187321984336</v>
+        <v>0.4818379942439179</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8571812423817207</v>
+        <v>2.053014816351576</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.699534137590319</v>
+        <v>0.9319926604254931</v>
       </c>
       <c r="C18">
-        <v>0.0949271773528082</v>
+        <v>0.07647633123448827</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1156328661810235</v>
+        <v>0.1787289345144991</v>
       </c>
       <c r="F18">
-        <v>1.552123708762181</v>
+        <v>2.32119209645542</v>
       </c>
       <c r="G18">
-        <v>0.7555151931608037</v>
+        <v>1.198215230578782</v>
       </c>
       <c r="H18">
-        <v>0.5276413166778013</v>
+        <v>1.158018179440035</v>
       </c>
       <c r="I18">
-        <v>0.5693716152815256</v>
+        <v>1.163659605493251</v>
       </c>
       <c r="J18">
-        <v>0.05692908278707876</v>
+        <v>0.07281012027385714</v>
       </c>
       <c r="K18">
-        <v>1.437134178264955</v>
+        <v>0.5947513269505009</v>
       </c>
       <c r="L18">
-        <v>0.5099908575965344</v>
+        <v>0.4792204727119724</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8686943584367768</v>
+        <v>2.057778816688771</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.684858773060739</v>
+        <v>0.9281495390928569</v>
       </c>
       <c r="C19">
-        <v>0.09432486874782597</v>
+        <v>0.07628236683881084</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1149475339825621</v>
+        <v>0.1786093446490931</v>
       </c>
       <c r="F19">
-        <v>1.544677270926542</v>
+        <v>2.320375759993411</v>
       </c>
       <c r="G19">
-        <v>0.753010037023202</v>
+        <v>1.198229150712422</v>
       </c>
       <c r="H19">
-        <v>0.5270702055786103</v>
+        <v>1.158382696556643</v>
       </c>
       <c r="I19">
-        <v>0.5686568520366251</v>
+        <v>1.164032049686888</v>
       </c>
       <c r="J19">
-        <v>0.05684379564905129</v>
+        <v>0.0727737896109879</v>
       </c>
       <c r="K19">
-        <v>1.424437150489865</v>
+        <v>0.5912887498664929</v>
       </c>
       <c r="L19">
-        <v>0.5060621636346383</v>
+        <v>0.4783374210103659</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8726181994608382</v>
+        <v>2.059402742061938</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.750985229464476</v>
+        <v>0.94546599092007</v>
       </c>
       <c r="C20">
-        <v>0.09703868646307257</v>
+        <v>0.07715381715613745</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1180389077060546</v>
+        <v>0.1791514643944225</v>
       </c>
       <c r="F20">
-        <v>1.578376278457142</v>
+        <v>2.324122298446781</v>
       </c>
       <c r="G20">
-        <v>0.7644129812006497</v>
+        <v>1.198210290999924</v>
       </c>
       <c r="H20">
-        <v>0.5297111639097238</v>
+        <v>1.156773166774244</v>
       </c>
       <c r="I20">
-        <v>0.5719586090479112</v>
+        <v>1.162390511358055</v>
       </c>
       <c r="J20">
-        <v>0.05722772704267598</v>
+        <v>0.07293728344809125</v>
       </c>
       <c r="K20">
-        <v>1.481645914623329</v>
+        <v>0.6068820628161404</v>
       </c>
       <c r="L20">
-        <v>0.523774794189336</v>
+        <v>0.4823239554614247</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8550627088604408</v>
+        <v>2.052138292816107</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.974779397060786</v>
+        <v>1.004028803671986</v>
       </c>
       <c r="C21">
-        <v>0.106223936416356</v>
+        <v>0.08005715232415156</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1285590665398502</v>
+        <v>0.1810418419045021</v>
       </c>
       <c r="F21">
-        <v>1.695067768326297</v>
+        <v>2.337985570601589</v>
       </c>
       <c r="G21">
-        <v>0.8050979645171878</v>
+        <v>1.198913510205116</v>
       </c>
       <c r="H21">
-        <v>0.5398731593197397</v>
+        <v>1.151904821534629</v>
       </c>
       <c r="I21">
-        <v>0.5846035289719893</v>
+        <v>1.157478920753874</v>
       </c>
       <c r="J21">
-        <v>0.05851980134158907</v>
+        <v>0.07348658717537404</v>
       </c>
       <c r="K21">
-        <v>1.675206709921184</v>
+        <v>0.6594699406553559</v>
       </c>
       <c r="L21">
-        <v>0.5839009581219727</v>
+        <v>0.4959396658919673</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7979154532033235</v>
+        <v>2.028490483215212</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.12239859002932</v>
+        <v>1.042584342193322</v>
       </c>
       <c r="C22">
-        <v>0.1122877810820881</v>
+        <v>0.08193639197531866</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1355414266210708</v>
+        <v>0.1823284064287911</v>
       </c>
       <c r="F22">
-        <v>1.774114326493986</v>
+        <v>2.347995482312712</v>
       </c>
       <c r="G22">
-        <v>0.8335918620142877</v>
+        <v>1.199944922847564</v>
       </c>
       <c r="H22">
-        <v>0.5475360124580675</v>
+        <v>1.149124887632198</v>
       </c>
       <c r="I22">
-        <v>0.5940995993453981</v>
+        <v>1.15471885817837</v>
       </c>
       <c r="J22">
-        <v>0.05936562649024779</v>
+        <v>0.07384552474347217</v>
       </c>
       <c r="K22">
-        <v>1.802852774580316</v>
+        <v>0.693983411077113</v>
       </c>
       <c r="L22">
-        <v>0.6236993848364705</v>
+        <v>0.5050024232019439</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7619958319044891</v>
+        <v>2.013601914815263</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.043477253137212</v>
+        <v>1.02198099257356</v>
       </c>
       <c r="C23">
-        <v>0.1090451172442997</v>
+        <v>0.08093507115934528</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1318045508726158</v>
+        <v>0.1816370856726799</v>
       </c>
       <c r="F23">
-        <v>1.731657978290016</v>
+        <v>2.342566200373341</v>
       </c>
       <c r="G23">
-        <v>0.8182008824163773</v>
+        <v>1.19934208677526</v>
       </c>
       <c r="H23">
-        <v>0.5433486819420352</v>
+        <v>1.150571840946924</v>
       </c>
       <c r="I23">
-        <v>0.5889136128352064</v>
+        <v>1.156150787908942</v>
       </c>
       <c r="J23">
-        <v>0.05891408085532746</v>
+        <v>0.07365396237393185</v>
       </c>
       <c r="K23">
-        <v>1.734611820102401</v>
+        <v>0.6755498638313782</v>
       </c>
       <c r="L23">
-        <v>0.6024092542637476</v>
+        <v>0.5001505068042746</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7810319880976841</v>
+        <v>2.021496350360106</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.747348160952299</v>
+        <v>0.9445136090012909</v>
       </c>
       <c r="C24">
-        <v>0.09688942972749004</v>
+        <v>0.07710605411463689</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1178686596426068</v>
+        <v>0.1791214337388567</v>
       </c>
       <c r="F24">
-        <v>1.576513130013367</v>
+        <v>2.323911755431993</v>
       </c>
       <c r="G24">
-        <v>0.7637781920288376</v>
+        <v>1.198208443961619</v>
       </c>
       <c r="H24">
-        <v>0.5295614359465191</v>
+        <v>1.156859524363512</v>
       </c>
       <c r="I24">
-        <v>0.5717716408582731</v>
+        <v>1.162478385350482</v>
       </c>
       <c r="J24">
-        <v>0.05720663492108358</v>
+        <v>0.07292830505833336</v>
       </c>
       <c r="K24">
-        <v>1.478499554095208</v>
+        <v>0.6060250078215006</v>
       </c>
       <c r="L24">
-        <v>0.5227999005183506</v>
+        <v>0.4821041982375789</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8560200105682725</v>
+        <v>2.052534364450507</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.43279951647034</v>
+        <v>0.8621814238216245</v>
       </c>
       <c r="C25">
-        <v>0.08397137151523282</v>
+        <v>0.07289684896372961</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1032491277882457</v>
+        <v>0.1766290645612116</v>
       </c>
       <c r="F25">
-        <v>1.41986025219137</v>
+        <v>2.307873445865226</v>
       </c>
       <c r="G25">
-        <v>0.7123936597780585</v>
+        <v>1.199437554311004</v>
       </c>
       <c r="H25">
-        <v>0.5186909135941136</v>
+        <v>1.165368572879345</v>
       </c>
       <c r="I25">
-        <v>0.558093398623825</v>
+        <v>1.171235768112389</v>
       </c>
       <c r="J25">
-        <v>0.05537203221842901</v>
+        <v>0.07214563989277067</v>
       </c>
       <c r="K25">
-        <v>1.206272240177782</v>
+        <v>0.5316644192079991</v>
       </c>
       <c r="L25">
-        <v>0.4388028320767035</v>
+        <v>0.4633491829498269</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9426628043677709</v>
+        <v>2.088444266246983</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8026254900991603</v>
+        <v>1.204378389460601</v>
       </c>
       <c r="C2">
-        <v>0.06972833565704661</v>
+        <v>0.0745579352971717</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1749855810264549</v>
+        <v>0.09279015840911953</v>
       </c>
       <c r="F2">
-        <v>2.299579057228655</v>
+        <v>1.31242357387157</v>
       </c>
       <c r="G2">
-        <v>1.202446591375022</v>
+        <v>0.6799807273098821</v>
       </c>
       <c r="H2">
-        <v>1.173121123765128</v>
+        <v>0.5137379362526104</v>
       </c>
       <c r="I2">
-        <v>1.179346095783742</v>
+        <v>0.5516752133657548</v>
       </c>
       <c r="J2">
-        <v>0.07156967794969304</v>
+        <v>0.0540282392427045</v>
       </c>
       <c r="K2">
-        <v>0.4774595367006782</v>
+        <v>1.008371730515023</v>
       </c>
       <c r="L2">
-        <v>0.4501545214245368</v>
+        <v>0.3782669724027983</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.116977087754879</v>
+        <v>1.011036392365924</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7629333717115117</v>
+        <v>1.051101095997865</v>
       </c>
       <c r="C3">
-        <v>0.06753713348266643</v>
+        <v>0.06820902988823008</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1739920969943221</v>
+        <v>0.08586987650314626</v>
       </c>
       <c r="F3">
-        <v>2.29615214440652</v>
+        <v>1.243956074644089</v>
       </c>
       <c r="G3">
-        <v>1.205796194450144</v>
+        <v>0.6609994074360515</v>
       </c>
       <c r="H3">
-        <v>1.179304178624633</v>
+        <v>0.5121074121233278</v>
       </c>
       <c r="I3">
-        <v>1.185879927176849</v>
+        <v>0.5493834778346027</v>
       </c>
       <c r="J3">
-        <v>0.0711796722019109</v>
+        <v>0.05312229185449269</v>
       </c>
       <c r="K3">
-        <v>0.4410672433099592</v>
+        <v>0.875418183458379</v>
       </c>
       <c r="L3">
-        <v>0.4415976814238007</v>
+        <v>0.3379219626011434</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.137620415348501</v>
+        <v>1.06006126097448</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7388949428227249</v>
+        <v>0.9576029982214607</v>
       </c>
       <c r="C4">
-        <v>0.06616989730799361</v>
+        <v>0.06431678985596534</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1734417361573009</v>
+        <v>0.0816967263504651</v>
       </c>
       <c r="F4">
-        <v>2.295131348574216</v>
+        <v>1.203879591420517</v>
       </c>
       <c r="G4">
-        <v>1.208498619429449</v>
+        <v>0.6506963015945502</v>
       </c>
       <c r="H4">
-        <v>1.183559340922798</v>
+        <v>0.5119037148648147</v>
       </c>
       <c r="I4">
-        <v>1.190403626308306</v>
+        <v>0.5489239176632559</v>
       </c>
       <c r="J4">
-        <v>0.07094042061022066</v>
+        <v>0.05256850192697193</v>
       </c>
       <c r="K4">
-        <v>0.4188926129581034</v>
+        <v>0.794233064891273</v>
       </c>
       <c r="L4">
-        <v>0.4365346361910838</v>
+        <v>0.3134442151834662</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.150940131486735</v>
+        <v>1.091436405867857</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7291833438817719</v>
+        <v>0.9196377193999297</v>
       </c>
       <c r="C5">
-        <v>0.06560722890045412</v>
+        <v>0.06273094122453671</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1732325115777051</v>
+        <v>0.08001429328678356</v>
       </c>
       <c r="F5">
-        <v>2.294988044170225</v>
+        <v>1.188016752854637</v>
       </c>
       <c r="G5">
-        <v>1.209762212418525</v>
+        <v>0.6468206590865009</v>
       </c>
       <c r="H5">
-        <v>1.18540878885527</v>
+        <v>0.5120136849004524</v>
       </c>
       <c r="I5">
-        <v>1.192375835219174</v>
+        <v>0.54896546208467</v>
       </c>
       <c r="J5">
-        <v>0.07084298698290858</v>
+        <v>0.052343469046507</v>
       </c>
       <c r="K5">
-        <v>0.4098995030083472</v>
+        <v>0.7612452901202005</v>
       </c>
       <c r="L5">
-        <v>0.4345195896189153</v>
+        <v>0.3035376737727802</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.156530116192238</v>
+        <v>1.104534858493741</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7275758467594358</v>
+        <v>0.9133412998534141</v>
       </c>
       <c r="C6">
-        <v>0.06551346496945598</v>
+        <v>0.06246759380253053</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1731986806948171</v>
+        <v>0.07973599692362399</v>
       </c>
       <c r="F6">
-        <v>2.294980725439714</v>
+        <v>1.18541034127675</v>
       </c>
       <c r="G6">
-        <v>1.209981834214602</v>
+        <v>0.6461961400177501</v>
       </c>
       <c r="H6">
-        <v>1.185722862633185</v>
+        <v>0.512043387523434</v>
       </c>
       <c r="I6">
-        <v>1.192711097375231</v>
+        <v>0.548985913167396</v>
       </c>
       <c r="J6">
-        <v>0.07082681231178078</v>
+        <v>0.05230614181427207</v>
       </c>
       <c r="K6">
-        <v>0.4084088264898185</v>
+        <v>0.7557730019699136</v>
       </c>
       <c r="L6">
-        <v>0.4341879083973197</v>
+        <v>0.3018966679322261</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.15746811876436</v>
+        <v>1.106728530071981</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7387636268600488</v>
+        <v>0.9570904586063591</v>
       </c>
       <c r="C7">
-        <v>0.0661623312937536</v>
+        <v>0.0642954030350964</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1734388534643649</v>
+        <v>0.08167396414330952</v>
       </c>
       <c r="F7">
-        <v>2.295128311510013</v>
+        <v>1.203663794090374</v>
       </c>
       <c r="G7">
-        <v>1.208515003471177</v>
+        <v>0.6506427473709522</v>
       </c>
       <c r="H7">
-        <v>1.183583815728596</v>
+        <v>0.5119044262827828</v>
       </c>
       <c r="I7">
-        <v>1.190429702787718</v>
+        <v>0.5489235636128456</v>
       </c>
       <c r="J7">
-        <v>0.07093910631740918</v>
+        <v>0.05256546443255594</v>
       </c>
       <c r="K7">
-        <v>0.4187711531736511</v>
+        <v>0.7937878141103454</v>
       </c>
       <c r="L7">
-        <v>0.4365072652205697</v>
+        <v>0.3133103426576014</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.151014863678771</v>
+        <v>1.091611799110886</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7888709419624718</v>
+        <v>1.151389199635759</v>
       </c>
       <c r="C8">
-        <v>0.06897732758496034</v>
+        <v>0.07236681132034306</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1746306809380833</v>
+        <v>0.09038770709158683</v>
       </c>
       <c r="F8">
-        <v>2.29817276081917</v>
+        <v>1.288393182086139</v>
       </c>
       <c r="G8">
-        <v>1.203467476992017</v>
+        <v>0.6731450193933028</v>
       </c>
       <c r="H8">
-        <v>1.175157876681894</v>
+        <v>0.5130055525840191</v>
       </c>
       <c r="I8">
-        <v>1.181492740990905</v>
+        <v>0.5506825097180794</v>
       </c>
       <c r="J8">
-        <v>0.07143516532537575</v>
+        <v>0.05371536972026902</v>
       </c>
       <c r="K8">
-        <v>0.4648763308144055</v>
+        <v>0.9624255764090037</v>
       </c>
       <c r="L8">
-        <v>0.4471646112379233</v>
+        <v>0.3642914362267646</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.123961113075465</v>
+        <v>1.027671218519568</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.889750369075216</v>
+        <v>1.538197528785815</v>
       </c>
       <c r="C9">
-        <v>0.07432540325916648</v>
+        <v>0.08830328302791202</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1774389544640798</v>
+        <v>0.1081231527724533</v>
       </c>
       <c r="F9">
-        <v>2.312730247377189</v>
+        <v>1.471318494431486</v>
       </c>
       <c r="G9">
-        <v>1.198696385671639</v>
+        <v>0.728804875774145</v>
       </c>
       <c r="H9">
-        <v>1.1622713970239</v>
+        <v>0.5218538963698052</v>
       </c>
       <c r="I9">
-        <v>1.168027658917715</v>
+        <v>0.5621025306466052</v>
       </c>
       <c r="J9">
-        <v>0.07240925107964458</v>
+        <v>0.05598898545868281</v>
       </c>
       <c r="K9">
-        <v>0.5566282253591055</v>
+        <v>1.297519160104628</v>
       </c>
       <c r="L9">
-        <v>0.4695716142282436</v>
+        <v>0.4668745757708166</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.076023046130285</v>
+        <v>0.9127420620886895</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9654437686828885</v>
+        <v>1.827290487782307</v>
       </c>
       <c r="C10">
-        <v>0.07815149388008535</v>
+        <v>0.1001700497004805</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1797869028766961</v>
+        <v>0.121616267695785</v>
       </c>
       <c r="F10">
-        <v>2.328653774860499</v>
+        <v>1.617716918731517</v>
       </c>
       <c r="G10">
-        <v>1.198322961489652</v>
+        <v>0.7779301185856724</v>
       </c>
       <c r="H10">
-        <v>1.155017110328785</v>
+        <v>0.532969195369887</v>
       </c>
       <c r="I10">
-        <v>1.160608907477453</v>
+        <v>0.5760214055659389</v>
       </c>
       <c r="J10">
-        <v>0.07312527160646809</v>
+        <v>0.05766955964308451</v>
       </c>
       <c r="K10">
-        <v>0.6248459731415323</v>
+        <v>1.54765088956384</v>
       </c>
       <c r="L10">
-        <v>0.486946606634902</v>
+        <v>0.544245259466777</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.043918741923797</v>
+        <v>0.8351948361502046</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.00021754822356</v>
+        <v>1.960201989150164</v>
       </c>
       <c r="C11">
-        <v>0.07987008628116143</v>
+        <v>0.1056254334545201</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1809163642912743</v>
+        <v>0.1278713037019976</v>
       </c>
       <c r="F11">
-        <v>2.337031887592573</v>
+        <v>1.68734839963858</v>
       </c>
       <c r="G11">
-        <v>1.1988346242034</v>
+        <v>0.8023535635070118</v>
       </c>
       <c r="H11">
-        <v>1.152196858942446</v>
+        <v>0.539156446240213</v>
       </c>
       <c r="I11">
-        <v>1.157770959278025</v>
+        <v>0.5837139704773904</v>
       </c>
       <c r="J11">
-        <v>0.07345099567083579</v>
+        <v>0.05843599201374161</v>
       </c>
       <c r="K11">
-        <v>0.6560538663777891</v>
+        <v>1.662600597728215</v>
       </c>
       <c r="L11">
-        <v>0.4950478017074289</v>
+        <v>0.5799765343699335</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.029989810120096</v>
+        <v>0.8015364945433774</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.013433944724909</v>
+        <v>2.010762902481474</v>
       </c>
       <c r="C12">
-        <v>0.08051774617423035</v>
+        <v>0.107701507676218</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1813528369099195</v>
+        <v>0.1302581552626769</v>
       </c>
       <c r="F12">
-        <v>2.340367406906978</v>
+        <v>1.714190260810767</v>
       </c>
       <c r="G12">
-        <v>1.199126475248718</v>
+        <v>0.8119265314092843</v>
       </c>
       <c r="H12">
-        <v>1.151197830646353</v>
+        <v>0.5416736242600848</v>
       </c>
       <c r="I12">
-        <v>1.156773484456025</v>
+        <v>0.5868370427780292</v>
       </c>
       <c r="J12">
-        <v>0.07357433013837777</v>
+        <v>0.05872646354580624</v>
       </c>
       <c r="K12">
-        <v>0.667896400453543</v>
+        <v>1.706323272868303</v>
       </c>
       <c r="L12">
-        <v>0.4981437177685564</v>
+        <v>0.5935926463292986</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.024812434320465</v>
+        <v>0.7890350204872369</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.010585418346352</v>
+        <v>1.999862986505377</v>
       </c>
       <c r="C13">
-        <v>0.08037840012141118</v>
+        <v>0.107253898401936</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1812584455377753</v>
+        <v>0.1297432712634361</v>
       </c>
       <c r="F13">
-        <v>2.339641801160411</v>
+        <v>1.708387678719703</v>
       </c>
       <c r="G13">
-        <v>1.199059255619829</v>
+        <v>0.8098499646679898</v>
       </c>
       <c r="H13">
-        <v>1.151409923926778</v>
+        <v>0.5411235633354607</v>
       </c>
       <c r="I13">
-        <v>1.156984875376303</v>
+        <v>0.5861548500277109</v>
       </c>
       <c r="J13">
-        <v>0.07354776847455113</v>
+        <v>0.05866389525858651</v>
       </c>
       <c r="K13">
-        <v>0.6653448034277005</v>
+        <v>1.696897754320048</v>
       </c>
       <c r="L13">
-        <v>0.4974757070611133</v>
+        <v>0.590656229974627</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.025923150226305</v>
+        <v>0.791716382882921</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.001303904352312</v>
+        <v>1.964356880144635</v>
       </c>
       <c r="C14">
-        <v>0.07992343235389399</v>
+        <v>0.1057960158908671</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1809520977027752</v>
+        <v>0.1280672982655808</v>
       </c>
       <c r="F14">
-        <v>2.337303039068971</v>
+        <v>1.689546972042791</v>
       </c>
       <c r="G14">
-        <v>1.198856668459726</v>
+        <v>0.8031344823625233</v>
       </c>
       <c r="H14">
-        <v>1.152113286907976</v>
+        <v>0.5393599752327987</v>
       </c>
       <c r="I14">
-        <v>1.157687349373319</v>
+        <v>0.5839666112825839</v>
       </c>
       <c r="J14">
-        <v>0.07346114273621751</v>
+        <v>0.05845988469564389</v>
       </c>
       <c r="K14">
-        <v>0.6570276645479112</v>
+        <v>1.666193647574005</v>
       </c>
       <c r="L14">
-        <v>0.4953019411259305</v>
+        <v>0.5810949764189957</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.029561915652076</v>
+        <v>0.8005030274544751</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9956249828904333</v>
+        <v>1.942639233111493</v>
       </c>
       <c r="C15">
-        <v>0.07964434387722008</v>
+        <v>0.1049044172946623</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1807655913155948</v>
+        <v>0.1270431300877988</v>
       </c>
       <c r="F15">
-        <v>2.335891688947299</v>
+        <v>1.678069378802562</v>
       </c>
       <c r="G15">
-        <v>1.198745355623728</v>
+        <v>0.799064092997682</v>
       </c>
       <c r="H15">
-        <v>1.152553093581574</v>
+        <v>0.5383027715799074</v>
       </c>
       <c r="I15">
-        <v>1.158127687766267</v>
+        <v>0.5826540537050988</v>
       </c>
       <c r="J15">
-        <v>0.07340808033242041</v>
+        <v>0.05833495244206333</v>
       </c>
       <c r="K15">
-        <v>0.6519363915811311</v>
+        <v>1.647412541889878</v>
       </c>
       <c r="L15">
-        <v>0.4939741095218295</v>
+        <v>0.5752498247768756</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.031803426240876</v>
+        <v>0.805917260386078</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9631780169828801</v>
+        <v>1.818635013814969</v>
       </c>
       <c r="C16">
-        <v>0.0780387403416114</v>
+        <v>0.09981484606994684</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1797143201330833</v>
+        <v>0.1212099562049396</v>
       </c>
       <c r="F16">
-        <v>2.328129054255768</v>
+        <v>1.613230546438885</v>
       </c>
       <c r="G16">
-        <v>1.198303245177371</v>
+        <v>0.7763779271801354</v>
       </c>
       <c r="H16">
-        <v>1.155211070159325</v>
+        <v>0.5325885700671193</v>
       </c>
       <c r="I16">
-        <v>1.160805176747211</v>
+        <v>0.5755472666134835</v>
       </c>
       <c r="J16">
-        <v>0.07310398392553097</v>
+        <v>0.05761950722757092</v>
       </c>
       <c r="K16">
-        <v>0.6228099549981607</v>
+        <v>1.540164279442649</v>
       </c>
       <c r="L16">
-        <v>0.4864211267868797</v>
+        <v>0.5419216163635241</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.044842629088571</v>
+        <v>0.8374280157561671</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.943359602967746</v>
+        <v>1.742941153368378</v>
       </c>
       <c r="C17">
-        <v>0.07704815408649779</v>
+        <v>0.09670857572744751</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1790850782861462</v>
+        <v>0.1176624046506447</v>
       </c>
       <c r="F17">
-        <v>2.323657326144613</v>
+        <v>1.574257055231968</v>
       </c>
       <c r="G17">
-        <v>1.198206647300481</v>
+        <v>0.7630101977110826</v>
       </c>
       <c r="H17">
-        <v>1.156964495438572</v>
+        <v>0.5293807011651666</v>
       </c>
       <c r="I17">
-        <v>1.162585231219239</v>
+        <v>0.5715459206525395</v>
       </c>
       <c r="J17">
-        <v>0.07291742382214395</v>
+        <v>0.05718107386770299</v>
       </c>
       <c r="K17">
-        <v>0.6049864248234087</v>
+        <v>1.474687100775071</v>
       </c>
       <c r="L17">
-        <v>0.4818379942439179</v>
+        <v>0.5216187321983625</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.053014816351576</v>
+        <v>0.8571812423817455</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9319926604254931</v>
+        <v>1.69953413759049</v>
       </c>
       <c r="C18">
-        <v>0.07647633123448827</v>
+        <v>0.09492717735292189</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1787289345144991</v>
+        <v>0.1156328661810342</v>
       </c>
       <c r="F18">
-        <v>2.32119209645542</v>
+        <v>1.552123708762181</v>
       </c>
       <c r="G18">
-        <v>1.198215230578782</v>
+        <v>0.7555151931608322</v>
       </c>
       <c r="H18">
-        <v>1.158018179440035</v>
+        <v>0.5276413166776877</v>
       </c>
       <c r="I18">
-        <v>1.163659605493251</v>
+        <v>0.5693716152815327</v>
       </c>
       <c r="J18">
-        <v>0.07281012027385714</v>
+        <v>0.05692908278705744</v>
       </c>
       <c r="K18">
-        <v>0.5947513269505009</v>
+        <v>1.437134178264984</v>
       </c>
       <c r="L18">
-        <v>0.4792204727119724</v>
+        <v>0.5099908575966055</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.057778816688771</v>
+        <v>0.8686943584368088</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9281495390928569</v>
+        <v>1.684858773060824</v>
       </c>
       <c r="C19">
-        <v>0.07628236683881084</v>
+        <v>0.09432486874828783</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1786093446490931</v>
+        <v>0.1149475339825408</v>
       </c>
       <c r="F19">
-        <v>2.320375759993411</v>
+        <v>1.544677270926542</v>
       </c>
       <c r="G19">
-        <v>1.198229150712422</v>
+        <v>0.7530100370231594</v>
       </c>
       <c r="H19">
-        <v>1.158382696556643</v>
+        <v>0.5270702055786103</v>
       </c>
       <c r="I19">
-        <v>1.164032049686888</v>
+        <v>0.568656852036618</v>
       </c>
       <c r="J19">
-        <v>0.0727737896109879</v>
+        <v>0.05684379564904418</v>
       </c>
       <c r="K19">
-        <v>0.5912887498664929</v>
+        <v>1.424437150489894</v>
       </c>
       <c r="L19">
-        <v>0.4783374210103659</v>
+        <v>0.5060621636346525</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.059402742061938</v>
+        <v>0.8726181994608257</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.94546599092007</v>
+        <v>1.750985229464561</v>
       </c>
       <c r="C20">
-        <v>0.07715381715613745</v>
+        <v>0.09703868646306546</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1791514643944225</v>
+        <v>0.1180389077060546</v>
       </c>
       <c r="F20">
-        <v>2.324122298446781</v>
+        <v>1.578376278457156</v>
       </c>
       <c r="G20">
-        <v>1.198210290999924</v>
+        <v>0.7644129812006923</v>
       </c>
       <c r="H20">
-        <v>1.156773166774244</v>
+        <v>0.5297111639097096</v>
       </c>
       <c r="I20">
-        <v>1.162390511358055</v>
+        <v>0.5719586090479254</v>
       </c>
       <c r="J20">
-        <v>0.07293728344809125</v>
+        <v>0.05722772704262624</v>
       </c>
       <c r="K20">
-        <v>0.6068820628161404</v>
+        <v>1.481645914623414</v>
       </c>
       <c r="L20">
-        <v>0.4823239554614247</v>
+        <v>0.5237747941894071</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.052138292816107</v>
+        <v>0.8550627088604532</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.004028803671986</v>
+        <v>1.9747793970609</v>
       </c>
       <c r="C21">
-        <v>0.08005715232415156</v>
+        <v>0.1062239364163489</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1810418419045021</v>
+        <v>0.1285590665398466</v>
       </c>
       <c r="F21">
-        <v>2.337985570601589</v>
+        <v>1.695067768326297</v>
       </c>
       <c r="G21">
-        <v>1.198913510205116</v>
+        <v>0.805097964517131</v>
       </c>
       <c r="H21">
-        <v>1.151904821534629</v>
+        <v>0.539873159319626</v>
       </c>
       <c r="I21">
-        <v>1.157478920753874</v>
+        <v>0.5846035289719964</v>
       </c>
       <c r="J21">
-        <v>0.07348658717537404</v>
+        <v>0.05851980134143631</v>
       </c>
       <c r="K21">
-        <v>0.6594699406553559</v>
+        <v>1.675206709921127</v>
       </c>
       <c r="L21">
-        <v>0.4959396658919673</v>
+        <v>0.5839009581220722</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.028490483215212</v>
+        <v>0.797915453203327</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.042584342193322</v>
+        <v>2.122398590029547</v>
       </c>
       <c r="C22">
-        <v>0.08193639197531866</v>
+        <v>0.1122877810822018</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1823284064287911</v>
+        <v>0.1355414266210673</v>
       </c>
       <c r="F22">
-        <v>2.347995482312712</v>
+        <v>1.774114326494001</v>
       </c>
       <c r="G22">
-        <v>1.199944922847564</v>
+        <v>0.8335918620143445</v>
       </c>
       <c r="H22">
-        <v>1.149124887632198</v>
+        <v>0.5475360124580533</v>
       </c>
       <c r="I22">
-        <v>1.15471885817837</v>
+        <v>0.5940995993454123</v>
       </c>
       <c r="J22">
-        <v>0.07384552474347217</v>
+        <v>0.05936562649029398</v>
       </c>
       <c r="K22">
-        <v>0.693983411077113</v>
+        <v>1.802852774580401</v>
       </c>
       <c r="L22">
-        <v>0.5050024232019439</v>
+        <v>0.6236993848364421</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.013601914815263</v>
+        <v>0.7619958319044855</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02198099257356</v>
+        <v>2.043477253137269</v>
       </c>
       <c r="C23">
-        <v>0.08093507115934528</v>
+        <v>0.1090451172441718</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1816370856726799</v>
+        <v>0.1318045508726442</v>
       </c>
       <c r="F23">
-        <v>2.342566200373341</v>
+        <v>1.731657978290016</v>
       </c>
       <c r="G23">
-        <v>1.19934208677526</v>
+        <v>0.8182008824163916</v>
       </c>
       <c r="H23">
-        <v>1.150571840946924</v>
+        <v>0.5433486819419215</v>
       </c>
       <c r="I23">
-        <v>1.156150787908942</v>
+        <v>0.5889136128351993</v>
       </c>
       <c r="J23">
-        <v>0.07365396237393185</v>
+        <v>0.0589140808552493</v>
       </c>
       <c r="K23">
-        <v>0.6755498638313782</v>
+        <v>1.734611820102373</v>
       </c>
       <c r="L23">
-        <v>0.5001505068042746</v>
+        <v>0.6024092542638471</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.021496350360106</v>
+        <v>0.781031988097677</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9445136090012909</v>
+        <v>1.747348160952328</v>
       </c>
       <c r="C24">
-        <v>0.07710605411463689</v>
+        <v>0.09688942972748293</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1791214337388567</v>
+        <v>0.1178686596426282</v>
       </c>
       <c r="F24">
-        <v>2.323911755431993</v>
+        <v>1.576513130013367</v>
       </c>
       <c r="G24">
-        <v>1.198208443961619</v>
+        <v>0.7637781920287381</v>
       </c>
       <c r="H24">
-        <v>1.156859524363512</v>
+        <v>0.5295614359465048</v>
       </c>
       <c r="I24">
-        <v>1.162478385350482</v>
+        <v>0.5717716408582589</v>
       </c>
       <c r="J24">
-        <v>0.07292830505833336</v>
+        <v>0.05720663492106581</v>
       </c>
       <c r="K24">
-        <v>0.6060250078215006</v>
+        <v>1.47849955409518</v>
       </c>
       <c r="L24">
-        <v>0.4821041982375789</v>
+        <v>0.5227999005183221</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.052534364450507</v>
+        <v>0.8560200105681854</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8621814238216245</v>
+        <v>1.432799516470567</v>
       </c>
       <c r="C25">
-        <v>0.07289684896372961</v>
+        <v>0.08397137151546019</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1766290645612116</v>
+        <v>0.1032491277882706</v>
       </c>
       <c r="F25">
-        <v>2.307873445865226</v>
+        <v>1.419860252191341</v>
       </c>
       <c r="G25">
-        <v>1.199437554311004</v>
+        <v>0.7123936597781011</v>
       </c>
       <c r="H25">
-        <v>1.165368572879345</v>
+        <v>0.518690913594213</v>
       </c>
       <c r="I25">
-        <v>1.171235768112389</v>
+        <v>0.558093398623825</v>
       </c>
       <c r="J25">
-        <v>0.07214563989277067</v>
+        <v>0.05537203221852494</v>
       </c>
       <c r="K25">
-        <v>0.5316644192079991</v>
+        <v>1.206272240177782</v>
       </c>
       <c r="L25">
-        <v>0.4633491829498269</v>
+        <v>0.4388028320765898</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.088444266246983</v>
+        <v>0.9426628043677141</v>
       </c>
       <c r="O25">
         <v>0</v>
